--- a/testData/amazonloginobject.xlsx
+++ b/testData/amazonloginobject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Click</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>validate</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>ObjectPath</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -52,15 +61,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +83,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,44 +400,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/testData/amazonloginobject.xlsx
+++ b/testData/amazonloginobject.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="objects" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -18,34 +18,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>Click</t>
-  </si>
-  <si>
     <t>XPATH</t>
   </si>
   <si>
     <t>//android.widget.ImageButton[@content-desc="Main navigation, open"]</t>
   </si>
   <si>
-    <t>ClickBack</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>//android.widget.ImageView[@content-desc="eBay"]</t>
   </si>
   <si>
-    <t>validate</t>
-  </si>
-  <si>
     <t>ObjectType</t>
   </si>
   <si>
     <t>ObjectPath</t>
   </si>
   <si>
-    <t>Action</t>
+    <t>MenuButton</t>
+  </si>
+  <si>
+    <t>Device back</t>
+  </si>
+  <si>
+    <t>Title Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Description </t>
   </si>
 </sst>
 </file>
@@ -408,52 +408,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
